--- a/dumps/Stocks/SBI Life Insurance Company Ltd.xlsx
+++ b/dumps/Stocks/SBI Life Insurance Company Ltd.xlsx
@@ -8,11 +8,11 @@
   </sheets>
   <definedNames>
     <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">'Trading History'!$A$4:$AE$37</definedName>
-    <definedName hidden="1" localSheetId="1" name="Z_791B4A95_CED9_490F_A961_67A71AFD0FD6_.wvu.FilterData">'Trading History'!$A$4:$AP$103</definedName>
+    <definedName hidden="1" localSheetId="1" name="Z_4171CA8A_1E3E_4C37_8981_EDBA562B7708_.wvu.FilterData">'Trading History'!$A$4:$AP$103</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{791B4A95-CED9-490F-A961-67A71AFD0FD6}" name="Filter 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{4171CA8A-1E3E-4C37-8981-EDBA562B7708}" name="Filter 1"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -898,8 +898,8 @@
         <v>2</v>
       </c>
       <c r="C2" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE($C$1, ""price"")"),1986.8)</f>
-        <v>1986.8</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE($C$1, ""price"")"),2025.0)</f>
+        <v>2025</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="2" t="s">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="F8" s="14">
         <f>IFERROR(SUM('Trading History'!$R$4:$R1007), 0)</f>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="16" t="s">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="I8" s="14">
         <f>SUM('Trading History'!$V$4:$V1007)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="17" t="s">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="C9" s="5">
         <f>IFERROR(Index!C10/(Index!C8*Index!$C$2), 0)</f>
-        <v>0.2585361953</v>
+        <v>0.2722592162</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="20" t="s">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F9" s="5">
         <f>IFERROR(Index!F10/(Index!F8*Index!$C$2), 0)</f>
-        <v>0.2615449895</v>
+        <v>0.2744891358</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="21" t="s">
@@ -1143,7 +1143,7 @@
       </c>
       <c r="I9" s="5">
         <f>IFERROR(Index!I10/(Index!I8*Index!$C$2), 0)</f>
-        <v>0.239881671</v>
+        <v>0.2630209778</v>
       </c>
       <c r="J9" s="8"/>
       <c r="K9" s="22" t="s">
@@ -1151,7 +1151,7 @@
       </c>
       <c r="L9" s="5">
         <f>IFERROR(Index!L10/(Index!L8*Index!$C$2), 0)</f>
-        <v>0.2740462629</v>
+        <v>0.2688766001</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -1174,7 +1174,7 @@
       </c>
       <c r="C10" s="23">
         <f>SUM('Trading History'!$L$4:$L1007)</f>
-        <v>18491.74966</v>
+        <v>19847.69686</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="20" t="s">
@@ -1182,7 +1182,7 @@
       </c>
       <c r="F10" s="23">
         <f>SUM('Trading History'!$P$4:$P1007)</f>
-        <v>16108.76514</v>
+        <v>16119.3745</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="21" t="s">
@@ -1190,7 +1190,7 @@
       </c>
       <c r="I10" s="23">
         <f>SUM('Trading History'!$T$4:$T1007)</f>
-        <v>2382.98452</v>
+        <v>3728.32236</v>
       </c>
       <c r="J10" s="8"/>
       <c r="K10" s="22" t="s">
@@ -1229,7 +1229,7 @@
       </c>
       <c r="F11" s="23">
         <f>Index!F12-Index!F10</f>
-        <v>45253.31</v>
+        <v>42376.75</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="21" t="s">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="I11" s="23">
         <f>Index!I12-Index!I10</f>
-        <v>7517.18</v>
+        <v>10393.74</v>
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="22" t="s">
@@ -1268,7 +1268,7 @@
       </c>
       <c r="C12" s="23">
         <f>SUM('Trading History'!$M$4:$M1007)</f>
-        <v>71262.23966</v>
+        <v>72618.18686</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="20" t="s">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="F12" s="23">
         <f>SUM('Trading History'!$Q$4:$Q1007)</f>
-        <v>61362.07514</v>
+        <v>58496.1245</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="21" t="s">
@@ -1284,7 +1284,7 @@
       </c>
       <c r="I12" s="23">
         <f>SUM('Trading History'!$U$4:$U1007)</f>
-        <v>9900.16452</v>
+        <v>14122.06236</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="22" t="s">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="L16" s="5">
         <f>IFERROR(Index!L17/(Index!L15*Index!$C$2), 0)</f>
-        <v>0.322851973</v>
+        <v>0.3167616296</v>
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -1712,7 +1712,7 @@
       </c>
       <c r="L23" s="5">
         <f>IFERROR(Index!L24/(Index!L22*Index!$C$2), 0)</f>
-        <v>0.322851973</v>
+        <v>0.3167616296</v>
       </c>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="C29" s="14">
         <f>SUMIFS('Trading History'!$N$4:$N1007, 'Trading History'!$K$4:$K1007, CONCAT("&gt;", $A29))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="15" t="s">
@@ -1940,7 +1940,7 @@
       </c>
       <c r="F29" s="14">
         <f>IFERROR(SUMIFS('Trading History'!$R$4:$R1007, 'Trading History'!$O$4:$O1007, CONCAT("&gt;", $A29)), 0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G29" s="8"/>
       <c r="H29" s="16" t="s">
@@ -1979,7 +1979,7 @@
       </c>
       <c r="C30" s="5">
         <f>IFERROR(Index!C31/(Index!C29*Index!$C$2), 0)</f>
-        <v>0</v>
+        <v>0.2920848494</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="20" t="s">
@@ -1987,7 +1987,7 @@
       </c>
       <c r="F30" s="5">
         <f>IFERROR(Index!F31/(Index!F29*Index!$C$2), 0)</f>
-        <v>0</v>
+        <v>0.2920848494</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="21" t="s">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="L30" s="5">
         <f>IFERROR(Index!L31/(Index!L29*Index!$C$2), 0)</f>
-        <v>0.2908011828</v>
+        <v>0.2853154519</v>
       </c>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
@@ -2026,7 +2026,7 @@
       </c>
       <c r="C31" s="23">
         <f>SUMIFS('Trading History'!$L$4:$L1007, 'Trading History'!$K$4:$K1007, CONCAT("&gt;", $A29))</f>
-        <v>0</v>
+        <v>2365.88728</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="20" t="s">
@@ -2034,7 +2034,7 @@
       </c>
       <c r="F31" s="23">
         <f>SUMIFS('Trading History'!$P$4:$P1007, 'Trading History'!$O$4:$O1007, CONCAT("&gt;", $A29))</f>
-        <v>0</v>
+        <v>2365.88728</v>
       </c>
       <c r="G31" s="8"/>
       <c r="H31" s="21" t="s">
@@ -2073,7 +2073,7 @@
       </c>
       <c r="C32" s="23">
         <f>Index!C33-Index!C31</f>
-        <v>0</v>
+        <v>5700.52</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="20" t="s">
@@ -2081,7 +2081,7 @@
       </c>
       <c r="F32" s="23">
         <f>Index!F33-Index!F31</f>
-        <v>0</v>
+        <v>5700.52</v>
       </c>
       <c r="G32" s="8"/>
       <c r="H32" s="21" t="s">
@@ -2120,7 +2120,7 @@
       </c>
       <c r="C33" s="23">
         <f>SUMIFS('Trading History'!$M$4:$M1007, 'Trading History'!$K$4:$K1007, CONCAT("&gt;", $A29))</f>
-        <v>0</v>
+        <v>8066.40728</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="20" t="s">
@@ -2128,7 +2128,7 @@
       </c>
       <c r="F33" s="23">
         <f>SUMIFS('Trading History'!$Q$4:$Q1007, 'Trading History'!$O$4:$O1007, CONCAT("&gt;", $A29))</f>
-        <v>0</v>
+        <v>8066.40728</v>
       </c>
       <c r="G33" s="8"/>
       <c r="H33" s="21" t="s">
@@ -2223,7 +2223,7 @@
       </c>
       <c r="C36" s="14">
         <f>SUMIFS('Trading History'!$N$4:$N1007, 'Trading History'!$K$4:$K1007, CONCAT("&gt;", $A36))</f>
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="15" t="s">
@@ -2231,7 +2231,7 @@
       </c>
       <c r="F36" s="14">
         <f>IFERROR(SUMIFS('Trading History'!$R$4:$R1007, 'Trading History'!$O$4:$O1007, CONCAT("&gt;", $A36)), 0)</f>
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="G36" s="8"/>
       <c r="H36" s="16" t="s">
@@ -2239,7 +2239,7 @@
       </c>
       <c r="I36" s="14">
         <f>SUMIFS('Trading History'!$V$4:$V1007, 'Trading History'!$S$4:$S1007, CONCAT("&gt;", $A36))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J36" s="8"/>
       <c r="K36" s="17" t="s">
@@ -2270,7 +2270,7 @@
       </c>
       <c r="C37" s="5">
         <f>IFERROR(Index!C38/(Index!C36*Index!$C$2), 0)</f>
-        <v>0.2765676733</v>
+        <v>0.2755137666</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="20" t="s">
@@ -2278,7 +2278,7 @@
       </c>
       <c r="F37" s="5">
         <f>IFERROR(Index!F38/(Index!F36*Index!$C$2), 0)</f>
-        <v>0.2765676733</v>
+        <v>0.2758248212</v>
       </c>
       <c r="G37" s="8"/>
       <c r="H37" s="21" t="s">
@@ -2286,7 +2286,7 @@
       </c>
       <c r="I37" s="5">
         <f>IFERROR(Index!I38/(Index!I36*Index!$C$2), 0)</f>
-        <v>0</v>
+        <v>0.2734141481</v>
       </c>
       <c r="J37" s="8"/>
       <c r="K37" s="22" t="s">
@@ -2294,7 +2294,7 @@
       </c>
       <c r="L37" s="5">
         <f>IFERROR(Index!L38/(Index!L36*Index!$C$2), 0)</f>
-        <v>0.2740462629</v>
+        <v>0.2688766001</v>
       </c>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
@@ -2317,7 +2317,7 @@
       </c>
       <c r="C38" s="23">
         <f>SUMIFS('Trading History'!$L$4:$L1007, 'Trading History'!$K$4:$K1007, CONCAT("&gt;", $A36))</f>
-        <v>3296.90792</v>
+        <v>17295.3767</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="20" t="s">
@@ -2325,7 +2325,7 @@
       </c>
       <c r="F38" s="23">
         <f>SUMIFS('Trading History'!$P$4:$P1007, 'Trading History'!$O$4:$O1007, CONCAT("&gt;", $A36))</f>
-        <v>3296.90792</v>
+        <v>15080.7221</v>
       </c>
       <c r="G38" s="8"/>
       <c r="H38" s="21" t="s">
@@ -2333,7 +2333,7 @@
       </c>
       <c r="I38" s="23">
         <f>SUMIFS('Trading History'!$T$4:$T1007, 'Trading History'!$S$4:$S1007, CONCAT("&gt;", $A36))</f>
-        <v>0</v>
+        <v>2214.6546</v>
       </c>
       <c r="J38" s="8"/>
       <c r="K38" s="22" t="s">
@@ -2364,7 +2364,7 @@
       </c>
       <c r="C39" s="23">
         <f>Index!C40-Index!C38</f>
-        <v>8577.08</v>
+        <v>45234.05</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="20" t="s">
@@ -2372,7 +2372,7 @@
       </c>
       <c r="F39" s="23">
         <f>Index!F40-Index!F38</f>
-        <v>8577.08</v>
+        <v>39380.15</v>
       </c>
       <c r="G39" s="8"/>
       <c r="H39" s="21" t="s">
@@ -2380,7 +2380,7 @@
       </c>
       <c r="I39" s="23">
         <f>Index!I40-Index!I38</f>
-        <v>0</v>
+        <v>5853.9</v>
       </c>
       <c r="J39" s="8"/>
       <c r="K39" s="22" t="s">
@@ -2411,7 +2411,7 @@
       </c>
       <c r="C40" s="23">
         <f>SUMIFS('Trading History'!$M$4:$M1007, 'Trading History'!$K$4:$K1007, CONCAT("&gt;", $A36))</f>
-        <v>11873.98792</v>
+        <v>62529.4267</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="20" t="s">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="F40" s="23">
         <f>SUMIFS('Trading History'!$Q$4:$Q1007, 'Trading History'!$O$4:$O1007, CONCAT("&gt;", $A36))</f>
-        <v>11873.98792</v>
+        <v>54460.8721</v>
       </c>
       <c r="G40" s="8"/>
       <c r="H40" s="21" t="s">
@@ -2427,7 +2427,7 @@
       </c>
       <c r="I40" s="23">
         <f>SUMIFS('Trading History'!$U$4:$U1007, 'Trading History'!$S$4:$S1007, CONCAT("&gt;", $A36))</f>
-        <v>0</v>
+        <v>8068.5546</v>
       </c>
       <c r="J40" s="8"/>
       <c r="K40" s="22" t="s">
@@ -2522,7 +2522,7 @@
       </c>
       <c r="F43" s="14">
         <f>IFERROR(SUMIFS('Trading History'!$R$4:$R1007, 'Trading History'!$O$4:$O1007, CONCAT("&gt;", $A43)), 0)</f>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G43" s="8"/>
       <c r="H43" s="16" t="s">
@@ -2530,7 +2530,7 @@
       </c>
       <c r="I43" s="14">
         <f>SUMIFS('Trading History'!$V$4:$V1007, 'Trading History'!$S$4:$S1007, CONCAT("&gt;", $A43))</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J43" s="8"/>
       <c r="K43" s="17" t="s">
@@ -2561,7 +2561,7 @@
       </c>
       <c r="C44" s="5">
         <f>IFERROR(Index!C45/(Index!C43*Index!$C$2), 0)</f>
-        <v>0.2585361953</v>
+        <v>0.2722592162</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="20" t="s">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="F44" s="5">
         <f>IFERROR(Index!F45/(Index!F43*Index!$C$2), 0)</f>
-        <v>0.2615449895</v>
+        <v>0.2744891358</v>
       </c>
       <c r="G44" s="8"/>
       <c r="H44" s="21" t="s">
@@ -2577,7 +2577,7 @@
       </c>
       <c r="I44" s="5">
         <f>IFERROR(Index!I45/(Index!I43*Index!$C$2), 0)</f>
-        <v>0.239881671</v>
+        <v>0.2630209778</v>
       </c>
       <c r="J44" s="8"/>
       <c r="K44" s="22" t="s">
@@ -2585,7 +2585,7 @@
       </c>
       <c r="L44" s="5">
         <f>IFERROR(Index!L45/(Index!L43*Index!$C$2), 0)</f>
-        <v>0.2740462629</v>
+        <v>0.2688766001</v>
       </c>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
@@ -2608,7 +2608,7 @@
       </c>
       <c r="C45" s="23">
         <f>SUMIFS('Trading History'!$L$4:$L1007, 'Trading History'!$K$4:$K1007, CONCAT("&gt;", $A43))</f>
-        <v>18491.74966</v>
+        <v>19847.69686</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="20" t="s">
@@ -2616,7 +2616,7 @@
       </c>
       <c r="F45" s="23">
         <f>SUMIFS('Trading History'!$P$4:$P1007, 'Trading History'!$O$4:$O1007, CONCAT("&gt;", $A43))</f>
-        <v>16108.76514</v>
+        <v>16119.3745</v>
       </c>
       <c r="G45" s="8"/>
       <c r="H45" s="21" t="s">
@@ -2624,7 +2624,7 @@
       </c>
       <c r="I45" s="23">
         <f>SUMIFS('Trading History'!$T$4:$T1007, 'Trading History'!$S$4:$S1007, CONCAT("&gt;", $A43))</f>
-        <v>2382.98452</v>
+        <v>3728.32236</v>
       </c>
       <c r="J45" s="8"/>
       <c r="K45" s="22" t="s">
@@ -2663,7 +2663,7 @@
       </c>
       <c r="F46" s="23">
         <f>Index!F47-Index!F45</f>
-        <v>45253.31</v>
+        <v>42376.75</v>
       </c>
       <c r="G46" s="8"/>
       <c r="H46" s="21" t="s">
@@ -2671,7 +2671,7 @@
       </c>
       <c r="I46" s="23">
         <f>Index!I47-Index!I45</f>
-        <v>7517.18</v>
+        <v>10393.74</v>
       </c>
       <c r="J46" s="8"/>
       <c r="K46" s="22" t="s">
@@ -2702,7 +2702,7 @@
       </c>
       <c r="C47" s="23">
         <f>SUMIFS('Trading History'!$M$4:$M1007, 'Trading History'!$K$4:$K1007, CONCAT("&gt;", $A43))</f>
-        <v>71262.23966</v>
+        <v>72618.18686</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="20" t="s">
@@ -2710,7 +2710,7 @@
       </c>
       <c r="F47" s="23">
         <f>SUMIFS('Trading History'!$Q$4:$Q1007, 'Trading History'!$O$4:$O1007, CONCAT("&gt;", $A43))</f>
-        <v>61362.07514</v>
+        <v>58496.1245</v>
       </c>
       <c r="G47" s="8"/>
       <c r="H47" s="21" t="s">
@@ -2718,7 +2718,7 @@
       </c>
       <c r="I47" s="23">
         <f>SUMIFS('Trading History'!$U$4:$U1007, 'Trading History'!$S$4:$S1007, CONCAT("&gt;", $A43))</f>
-        <v>9900.16452</v>
+        <v>14122.06236</v>
       </c>
       <c r="J47" s="8"/>
       <c r="K47" s="22" t="s">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="F50" s="14">
         <f>IFERROR(SUMIFS('Trading History'!$R$4:$R1007, 'Trading History'!$O$4:$O1007, CONCAT("&gt;", $A50)), 0)</f>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G50" s="8"/>
       <c r="H50" s="16" t="s">
@@ -2821,7 +2821,7 @@
       </c>
       <c r="I50" s="14">
         <f>SUMIFS('Trading History'!$V$4:$V1007, 'Trading History'!$S$4:$S1007, CONCAT("&gt;", $A50))</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J50" s="8"/>
       <c r="K50" s="17" t="s">
@@ -2852,7 +2852,7 @@
       </c>
       <c r="C51" s="5">
         <f>IFERROR(Index!C52/(Index!C50*Index!$C$2), 0)</f>
-        <v>0.2585361953</v>
+        <v>0.2722592162</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="20" t="s">
@@ -2860,7 +2860,7 @@
       </c>
       <c r="F51" s="5">
         <f>IFERROR(Index!F52/(Index!F50*Index!$C$2), 0)</f>
-        <v>0.2615449895</v>
+        <v>0.2744891358</v>
       </c>
       <c r="G51" s="8"/>
       <c r="H51" s="21" t="s">
@@ -2868,7 +2868,7 @@
       </c>
       <c r="I51" s="5">
         <f>IFERROR(Index!I52/(Index!I50*Index!$C$2), 0)</f>
-        <v>0.239881671</v>
+        <v>0.2630209778</v>
       </c>
       <c r="J51" s="8"/>
       <c r="K51" s="22" t="s">
@@ -2876,7 +2876,7 @@
       </c>
       <c r="L51" s="5">
         <f>IFERROR(Index!L52/(Index!L50*Index!$C$2), 0)</f>
-        <v>0.2740462629</v>
+        <v>0.2688766001</v>
       </c>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C52" s="23">
         <f>SUMIFS('Trading History'!$L$4:$L1007, 'Trading History'!$K$4:$K1007, CONCAT("&gt;", $A50))</f>
-        <v>18491.74966</v>
+        <v>19847.69686</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="20" t="s">
@@ -2907,7 +2907,7 @@
       </c>
       <c r="F52" s="23">
         <f>SUMIFS('Trading History'!$P$4:$P1007, 'Trading History'!$O$4:$O1007, CONCAT("&gt;", $A50))</f>
-        <v>16108.76514</v>
+        <v>16119.3745</v>
       </c>
       <c r="G52" s="8"/>
       <c r="H52" s="21" t="s">
@@ -2915,7 +2915,7 @@
       </c>
       <c r="I52" s="23">
         <f>SUMIFS('Trading History'!$T$4:$T1007, 'Trading History'!$S$4:$S1007, CONCAT("&gt;", $A50))</f>
-        <v>2382.98452</v>
+        <v>3728.32236</v>
       </c>
       <c r="J52" s="8"/>
       <c r="K52" s="22" t="s">
@@ -2954,7 +2954,7 @@
       </c>
       <c r="F53" s="23">
         <f>Index!F54-Index!F52</f>
-        <v>45253.31</v>
+        <v>42376.75</v>
       </c>
       <c r="G53" s="8"/>
       <c r="H53" s="21" t="s">
@@ -2962,7 +2962,7 @@
       </c>
       <c r="I53" s="23">
         <f>Index!I54-Index!I52</f>
-        <v>7517.18</v>
+        <v>10393.74</v>
       </c>
       <c r="J53" s="8"/>
       <c r="K53" s="22" t="s">
@@ -2993,7 +2993,7 @@
       </c>
       <c r="C54" s="23">
         <f>SUMIFS('Trading History'!$M$4:$M1007, 'Trading History'!$K$4:$K1007, CONCAT("&gt;", $A50))</f>
-        <v>71262.23966</v>
+        <v>72618.18686</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="20" t="s">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="F54" s="23">
         <f>SUMIFS('Trading History'!$Q$4:$Q1007, 'Trading History'!$O$4:$O1007, CONCAT("&gt;", $A50))</f>
-        <v>61362.07514</v>
+        <v>58496.1245</v>
       </c>
       <c r="G54" s="8"/>
       <c r="H54" s="21" t="s">
@@ -3009,7 +3009,7 @@
       </c>
       <c r="I54" s="23">
         <f>SUMIFS('Trading History'!$U$4:$U1007, 'Trading History'!$S$4:$S1007, CONCAT("&gt;", $A50))</f>
-        <v>9900.16452</v>
+        <v>14122.06236</v>
       </c>
       <c r="J54" s="8"/>
       <c r="K54" s="22" t="s">
@@ -3104,7 +3104,7 @@
       </c>
       <c r="F57" s="14">
         <f>IFERROR(SUMIFS('Trading History'!$R$4:$R1007, 'Trading History'!$O$4:$O1007, CONCAT("&gt;", $A57)), 0)</f>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G57" s="8"/>
       <c r="H57" s="16" t="s">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="I57" s="14">
         <f>SUMIFS('Trading History'!$V$4:$V1007, 'Trading History'!$S$4:$S1007, CONCAT("&gt;", $A57))</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J57" s="8"/>
       <c r="K57" s="17" t="s">
@@ -3143,7 +3143,7 @@
       </c>
       <c r="C58" s="5">
         <f>IFERROR(Index!C59/(Index!C57*Index!$C$2), 0)</f>
-        <v>0.2585361953</v>
+        <v>0.2722592162</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="20" t="s">
@@ -3151,7 +3151,7 @@
       </c>
       <c r="F58" s="5">
         <f>IFERROR(Index!F59/(Index!F57*Index!$C$2), 0)</f>
-        <v>0.2615449895</v>
+        <v>0.2744891358</v>
       </c>
       <c r="G58" s="8"/>
       <c r="H58" s="21" t="s">
@@ -3159,7 +3159,7 @@
       </c>
       <c r="I58" s="5">
         <f>IFERROR(Index!I59/(Index!I57*Index!$C$2), 0)</f>
-        <v>0.239881671</v>
+        <v>0.2630209778</v>
       </c>
       <c r="J58" s="8"/>
       <c r="K58" s="22" t="s">
@@ -3167,7 +3167,7 @@
       </c>
       <c r="L58" s="5">
         <f>IFERROR(Index!L59/(Index!L57*Index!$C$2), 0)</f>
-        <v>0.2740462629</v>
+        <v>0.2688766001</v>
       </c>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
@@ -3190,7 +3190,7 @@
       </c>
       <c r="C59" s="23">
         <f>SUMIFS('Trading History'!$L$4:$L1007, 'Trading History'!$K$4:$K1007, CONCAT("&gt;", $A57))</f>
-        <v>18491.74966</v>
+        <v>19847.69686</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="20" t="s">
@@ -3198,7 +3198,7 @@
       </c>
       <c r="F59" s="23">
         <f>SUMIFS('Trading History'!$P$4:$P1007, 'Trading History'!$O$4:$O1007, CONCAT("&gt;", $A57))</f>
-        <v>16108.76514</v>
+        <v>16119.3745</v>
       </c>
       <c r="G59" s="8"/>
       <c r="H59" s="21" t="s">
@@ -3206,7 +3206,7 @@
       </c>
       <c r="I59" s="23">
         <f>SUMIFS('Trading History'!$T$4:$T1007, 'Trading History'!$S$4:$S1007, CONCAT("&gt;", $A57))</f>
-        <v>2382.98452</v>
+        <v>3728.32236</v>
       </c>
       <c r="J59" s="8"/>
       <c r="K59" s="22" t="s">
@@ -3245,7 +3245,7 @@
       </c>
       <c r="F60" s="23">
         <f>Index!F61-Index!F59</f>
-        <v>45253.31</v>
+        <v>42376.75</v>
       </c>
       <c r="G60" s="8"/>
       <c r="H60" s="21" t="s">
@@ -3253,7 +3253,7 @@
       </c>
       <c r="I60" s="23">
         <f>Index!I61-Index!I59</f>
-        <v>7517.18</v>
+        <v>10393.74</v>
       </c>
       <c r="J60" s="8"/>
       <c r="K60" s="22" t="s">
@@ -3284,7 +3284,7 @@
       </c>
       <c r="C61" s="23">
         <f>SUMIFS('Trading History'!$M$4:$M1007, 'Trading History'!$K$4:$K1007, CONCAT("&gt;", $A57))</f>
-        <v>71262.23966</v>
+        <v>72618.18686</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="20" t="s">
@@ -3292,7 +3292,7 @@
       </c>
       <c r="F61" s="23">
         <f>SUMIFS('Trading History'!$Q$4:$Q1007, 'Trading History'!$O$4:$O1007, CONCAT("&gt;", $A57))</f>
-        <v>61362.07514</v>
+        <v>58496.1245</v>
       </c>
       <c r="G61" s="8"/>
       <c r="H61" s="21" t="s">
@@ -3300,7 +3300,7 @@
       </c>
       <c r="I61" s="23">
         <f>SUMIFS('Trading History'!$U$4:$U1007, 'Trading History'!$S$4:$S1007, CONCAT("&gt;", $A57))</f>
-        <v>9900.16452</v>
+        <v>14122.06236</v>
       </c>
       <c r="J61" s="8"/>
       <c r="K61" s="22" t="s">
@@ -3395,7 +3395,7 @@
       </c>
       <c r="F64" s="14">
         <f>IFERROR(SUMIFS('Trading History'!$R$4:$R1007, 'Trading History'!$O$4:$O1007, CONCAT("&gt;", $A64)), 0)</f>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G64" s="8"/>
       <c r="H64" s="16" t="s">
@@ -3403,7 +3403,7 @@
       </c>
       <c r="I64" s="14">
         <f>SUMIFS('Trading History'!$V$4:$V1007, 'Trading History'!$S$4:$S1007, CONCAT("&gt;", $A64))</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J64" s="8"/>
       <c r="K64" s="17" t="s">
@@ -3434,7 +3434,7 @@
       </c>
       <c r="C65" s="5">
         <f>IFERROR(Index!C66/(Index!C64*Index!$C$2), 0)</f>
-        <v>0.2585361953</v>
+        <v>0.2722592162</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="20" t="s">
@@ -3442,7 +3442,7 @@
       </c>
       <c r="F65" s="5">
         <f>IFERROR(Index!F66/(Index!F64*Index!$C$2), 0)</f>
-        <v>0.2615449895</v>
+        <v>0.2744891358</v>
       </c>
       <c r="G65" s="8"/>
       <c r="H65" s="21" t="s">
@@ -3450,7 +3450,7 @@
       </c>
       <c r="I65" s="5">
         <f>IFERROR(Index!I66/(Index!I64*Index!$C$2), 0)</f>
-        <v>0.239881671</v>
+        <v>0.2630209778</v>
       </c>
       <c r="J65" s="8"/>
       <c r="K65" s="22" t="s">
@@ -3458,7 +3458,7 @@
       </c>
       <c r="L65" s="5">
         <f>IFERROR(Index!L66/(Index!L64*Index!$C$2), 0)</f>
-        <v>0.2740462629</v>
+        <v>0.2688766001</v>
       </c>
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
@@ -3481,7 +3481,7 @@
       </c>
       <c r="C66" s="23">
         <f>SUMIFS('Trading History'!$L$4:$L1007, 'Trading History'!$K$4:$K1007, CONCAT("&gt;", $A64))</f>
-        <v>18491.74966</v>
+        <v>19847.69686</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="20" t="s">
@@ -3489,7 +3489,7 @@
       </c>
       <c r="F66" s="23">
         <f>SUMIFS('Trading History'!$P$4:$P1007, 'Trading History'!$O$4:$O1007, CONCAT("&gt;", $A64))</f>
-        <v>16108.76514</v>
+        <v>16119.3745</v>
       </c>
       <c r="G66" s="8"/>
       <c r="H66" s="21" t="s">
@@ -3497,7 +3497,7 @@
       </c>
       <c r="I66" s="23">
         <f>SUMIFS('Trading History'!$T$4:$T1007, 'Trading History'!$S$4:$S1007, CONCAT("&gt;", $A64))</f>
-        <v>2382.98452</v>
+        <v>3728.32236</v>
       </c>
       <c r="J66" s="8"/>
       <c r="K66" s="22" t="s">
@@ -3536,7 +3536,7 @@
       </c>
       <c r="F67" s="23">
         <f>Index!F68-Index!F66</f>
-        <v>45253.31</v>
+        <v>42376.75</v>
       </c>
       <c r="G67" s="8"/>
       <c r="H67" s="21" t="s">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="I67" s="23">
         <f>Index!I68-Index!I66</f>
-        <v>7517.18</v>
+        <v>10393.74</v>
       </c>
       <c r="J67" s="8"/>
       <c r="K67" s="22" t="s">
@@ -3575,7 +3575,7 @@
       </c>
       <c r="C68" s="23">
         <f>SUMIFS('Trading History'!$M$4:$M1007, 'Trading History'!$K$4:$K1007, CONCAT("&gt;", $A64))</f>
-        <v>71262.23966</v>
+        <v>72618.18686</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="20" t="s">
@@ -3583,7 +3583,7 @@
       </c>
       <c r="F68" s="23">
         <f>SUMIFS('Trading History'!$Q$4:$Q1007, 'Trading History'!$O$4:$O1007, CONCAT("&gt;", $A64))</f>
-        <v>61362.07514</v>
+        <v>58496.1245</v>
       </c>
       <c r="G68" s="8"/>
       <c r="H68" s="21" t="s">
@@ -3591,7 +3591,7 @@
       </c>
       <c r="I68" s="23">
         <f>SUMIFS('Trading History'!$U$4:$U1007, 'Trading History'!$S$4:$S1007, CONCAT("&gt;", $A64))</f>
-        <v>9900.16452</v>
+        <v>14122.06236</v>
       </c>
       <c r="J68" s="8"/>
       <c r="K68" s="22" t="s">
@@ -3686,7 +3686,7 @@
       </c>
       <c r="F71" s="14">
         <f>IFERROR(SUMIFS('Trading History'!$R$4:$R1007, 'Trading History'!$O$4:$O1007, CONCAT("&gt;", $A71)), 0)</f>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G71" s="8"/>
       <c r="H71" s="16" t="s">
@@ -3694,7 +3694,7 @@
       </c>
       <c r="I71" s="14">
         <f>SUMIFS('Trading History'!$V$4:$V1007, 'Trading History'!$S$4:$S1007, CONCAT("&gt;", $A71))</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J71" s="8"/>
       <c r="K71" s="17" t="s">
@@ -3725,7 +3725,7 @@
       </c>
       <c r="C72" s="5">
         <f>IFERROR(Index!C73/(Index!C71*Index!$C$2), 0)</f>
-        <v>0.2585361953</v>
+        <v>0.2722592162</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="20" t="s">
@@ -3733,7 +3733,7 @@
       </c>
       <c r="F72" s="5">
         <f>IFERROR(Index!F73/(Index!F71*Index!$C$2), 0)</f>
-        <v>0.2615449895</v>
+        <v>0.2744891358</v>
       </c>
       <c r="G72" s="8"/>
       <c r="H72" s="21" t="s">
@@ -3741,7 +3741,7 @@
       </c>
       <c r="I72" s="5">
         <f>IFERROR(Index!I73/(Index!I71*Index!$C$2), 0)</f>
-        <v>0.239881671</v>
+        <v>0.2630209778</v>
       </c>
       <c r="J72" s="8"/>
       <c r="K72" s="22" t="s">
@@ -3749,7 +3749,7 @@
       </c>
       <c r="L72" s="5">
         <f>IFERROR(Index!L73/(Index!L71*Index!$C$2), 0)</f>
-        <v>0.2740462629</v>
+        <v>0.2688766001</v>
       </c>
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
@@ -3772,7 +3772,7 @@
       </c>
       <c r="C73" s="23">
         <f>SUMIFS('Trading History'!$L$4:$L1007, 'Trading History'!$K$4:$K1007, CONCAT("&gt;", $A71))</f>
-        <v>18491.74966</v>
+        <v>19847.69686</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="20" t="s">
@@ -3780,7 +3780,7 @@
       </c>
       <c r="F73" s="23">
         <f>SUMIFS('Trading History'!$P$4:$P1007, 'Trading History'!$O$4:$O1007, CONCAT("&gt;", $A71))</f>
-        <v>16108.76514</v>
+        <v>16119.3745</v>
       </c>
       <c r="G73" s="8"/>
       <c r="H73" s="21" t="s">
@@ -3788,7 +3788,7 @@
       </c>
       <c r="I73" s="23">
         <f>SUMIFS('Trading History'!$T$4:$T1007, 'Trading History'!$S$4:$S1007, CONCAT("&gt;", $A71))</f>
-        <v>2382.98452</v>
+        <v>3728.32236</v>
       </c>
       <c r="J73" s="8"/>
       <c r="K73" s="22" t="s">
@@ -3827,7 +3827,7 @@
       </c>
       <c r="F74" s="23">
         <f>Index!F75-Index!F73</f>
-        <v>45253.31</v>
+        <v>42376.75</v>
       </c>
       <c r="G74" s="8"/>
       <c r="H74" s="21" t="s">
@@ -3835,7 +3835,7 @@
       </c>
       <c r="I74" s="23">
         <f>Index!I75-Index!I73</f>
-        <v>7517.18</v>
+        <v>10393.74</v>
       </c>
       <c r="J74" s="8"/>
       <c r="K74" s="22" t="s">
@@ -3866,7 +3866,7 @@
       </c>
       <c r="C75" s="23">
         <f>SUMIFS('Trading History'!$M$4:$M1007, 'Trading History'!$K$4:$K1007, CONCAT("&gt;", $A71))</f>
-        <v>71262.23966</v>
+        <v>72618.18686</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="20" t="s">
@@ -3874,7 +3874,7 @@
       </c>
       <c r="F75" s="23">
         <f>SUMIFS('Trading History'!$Q$4:$Q1007, 'Trading History'!$O$4:$O1007, CONCAT("&gt;", $A71))</f>
-        <v>61362.07514</v>
+        <v>58496.1245</v>
       </c>
       <c r="G75" s="8"/>
       <c r="H75" s="21" t="s">
@@ -3882,7 +3882,7 @@
       </c>
       <c r="I75" s="23">
         <f>SUMIFS('Trading History'!$U$4:$U1007, 'Trading History'!$S$4:$S1007, CONCAT("&gt;", $A71))</f>
-        <v>9900.16452</v>
+        <v>14122.06236</v>
       </c>
       <c r="J75" s="8"/>
       <c r="K75" s="22" t="s">
@@ -3977,7 +3977,7 @@
       </c>
       <c r="F78" s="14">
         <f>IFERROR(SUMIFS('Trading History'!$R$4:$R1007, 'Trading History'!$O$4:$O1007, CONCAT("&gt;", $A78)), 0)</f>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G78" s="8"/>
       <c r="H78" s="16" t="s">
@@ -3985,7 +3985,7 @@
       </c>
       <c r="I78" s="14">
         <f>SUMIFS('Trading History'!$V$4:$V1007, 'Trading History'!$S$4:$S1007, CONCAT("&gt;", $A78))</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J78" s="8"/>
       <c r="K78" s="17" t="s">
@@ -4016,7 +4016,7 @@
       </c>
       <c r="C79" s="5">
         <f>IFERROR(Index!C80/(Index!C78*Index!$C$2), 0)</f>
-        <v>0.2585361953</v>
+        <v>0.2722592162</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="20" t="s">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="F79" s="5">
         <f>IFERROR(Index!F80/(Index!F78*Index!$C$2), 0)</f>
-        <v>0.2615449895</v>
+        <v>0.2744891358</v>
       </c>
       <c r="G79" s="8"/>
       <c r="H79" s="21" t="s">
@@ -4032,7 +4032,7 @@
       </c>
       <c r="I79" s="5">
         <f>IFERROR(Index!I80/(Index!I78*Index!$C$2), 0)</f>
-        <v>0.239881671</v>
+        <v>0.2630209778</v>
       </c>
       <c r="J79" s="8"/>
       <c r="K79" s="22" t="s">
@@ -4040,7 +4040,7 @@
       </c>
       <c r="L79" s="5">
         <f>IFERROR(Index!L80/(Index!L78*Index!$C$2), 0)</f>
-        <v>0.2740462629</v>
+        <v>0.2688766001</v>
       </c>
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
@@ -4063,7 +4063,7 @@
       </c>
       <c r="C80" s="23">
         <f>SUMIFS('Trading History'!$L$4:$L1007, 'Trading History'!$K$4:$K1007, CONCAT("&gt;", $A78))</f>
-        <v>18491.74966</v>
+        <v>19847.69686</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="20" t="s">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="F80" s="23">
         <f>SUMIFS('Trading History'!$P$4:$P1007, 'Trading History'!$O$4:$O1007, CONCAT("&gt;", $A78))</f>
-        <v>16108.76514</v>
+        <v>16119.3745</v>
       </c>
       <c r="G80" s="8"/>
       <c r="H80" s="21" t="s">
@@ -4079,7 +4079,7 @@
       </c>
       <c r="I80" s="23">
         <f>SUMIFS('Trading History'!$T$4:$T1007, 'Trading History'!$S$4:$S1007, CONCAT("&gt;", $A78))</f>
-        <v>2382.98452</v>
+        <v>3728.32236</v>
       </c>
       <c r="J80" s="8"/>
       <c r="K80" s="22" t="s">
@@ -4118,7 +4118,7 @@
       </c>
       <c r="F81" s="23">
         <f>Index!F82-Index!F80</f>
-        <v>45253.31</v>
+        <v>42376.75</v>
       </c>
       <c r="G81" s="8"/>
       <c r="H81" s="21" t="s">
@@ -4126,7 +4126,7 @@
       </c>
       <c r="I81" s="23">
         <f>Index!I82-Index!I80</f>
-        <v>7517.18</v>
+        <v>10393.74</v>
       </c>
       <c r="J81" s="8"/>
       <c r="K81" s="22" t="s">
@@ -4157,7 +4157,7 @@
       </c>
       <c r="C82" s="23">
         <f>SUMIFS('Trading History'!$M$4:$M1007, 'Trading History'!$K$4:$K1007, CONCAT("&gt;", $A78))</f>
-        <v>71262.23966</v>
+        <v>72618.18686</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="20" t="s">
@@ -4165,7 +4165,7 @@
       </c>
       <c r="F82" s="23">
         <f>SUMIFS('Trading History'!$Q$4:$Q1007, 'Trading History'!$O$4:$O1007, CONCAT("&gt;", $A78))</f>
-        <v>61362.07514</v>
+        <v>58496.1245</v>
       </c>
       <c r="G82" s="8"/>
       <c r="H82" s="21" t="s">
@@ -4173,7 +4173,7 @@
       </c>
       <c r="I82" s="23">
         <f>SUMIFS('Trading History'!$U$4:$U1007, 'Trading History'!$S$4:$S1007, CONCAT("&gt;", $A78))</f>
-        <v>9900.16452</v>
+        <v>14122.06236</v>
       </c>
       <c r="J82" s="8"/>
       <c r="K82" s="22" t="s">
@@ -4268,7 +4268,7 @@
       </c>
       <c r="F85" s="14">
         <f>IFERROR(SUMIFS('Trading History'!$R$4:$R1007, 'Trading History'!$O$4:$O1007, CONCAT("&gt;", $A85)), 0)</f>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G85" s="8"/>
       <c r="H85" s="16" t="s">
@@ -4276,7 +4276,7 @@
       </c>
       <c r="I85" s="14">
         <f>SUMIFS('Trading History'!$V$4:$V1007, 'Trading History'!$S$4:$S1007, CONCAT("&gt;", $A85))</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J85" s="8"/>
       <c r="K85" s="17" t="s">
@@ -4307,7 +4307,7 @@
       </c>
       <c r="C86" s="5">
         <f>IFERROR(Index!C87/(Index!C85*Index!$C$2), 0)</f>
-        <v>0.2585361953</v>
+        <v>0.2722592162</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="20" t="s">
@@ -4315,7 +4315,7 @@
       </c>
       <c r="F86" s="5">
         <f>IFERROR(Index!F87/(Index!F85*Index!$C$2), 0)</f>
-        <v>0.2615449895</v>
+        <v>0.2744891358</v>
       </c>
       <c r="G86" s="8"/>
       <c r="H86" s="21" t="s">
@@ -4323,7 +4323,7 @@
       </c>
       <c r="I86" s="5">
         <f>IFERROR(Index!I87/(Index!I85*Index!$C$2), 0)</f>
-        <v>0.239881671</v>
+        <v>0.2630209778</v>
       </c>
       <c r="J86" s="8"/>
       <c r="K86" s="22" t="s">
@@ -4331,7 +4331,7 @@
       </c>
       <c r="L86" s="5">
         <f>IFERROR(Index!L87/(Index!L85*Index!$C$2), 0)</f>
-        <v>0.2740462629</v>
+        <v>0.2688766001</v>
       </c>
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
@@ -4354,7 +4354,7 @@
       </c>
       <c r="C87" s="23">
         <f>SUMIFS('Trading History'!$L$4:$L1007, 'Trading History'!$K$4:$K1007, CONCAT("&gt;", $A85))</f>
-        <v>18491.74966</v>
+        <v>19847.69686</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="20" t="s">
@@ -4362,7 +4362,7 @@
       </c>
       <c r="F87" s="23">
         <f>SUMIFS('Trading History'!$P$4:$P1007, 'Trading History'!$O$4:$O1007, CONCAT("&gt;", $A85))</f>
-        <v>16108.76514</v>
+        <v>16119.3745</v>
       </c>
       <c r="G87" s="8"/>
       <c r="H87" s="21" t="s">
@@ -4370,7 +4370,7 @@
       </c>
       <c r="I87" s="23">
         <f>SUMIFS('Trading History'!$T$4:$T1007, 'Trading History'!$S$4:$S1007, CONCAT("&gt;", $A85))</f>
-        <v>2382.98452</v>
+        <v>3728.32236</v>
       </c>
       <c r="J87" s="8"/>
       <c r="K87" s="22" t="s">
@@ -4409,7 +4409,7 @@
       </c>
       <c r="F88" s="23">
         <f>Index!F89-Index!F87</f>
-        <v>45253.31</v>
+        <v>42376.75</v>
       </c>
       <c r="G88" s="8"/>
       <c r="H88" s="21" t="s">
@@ -4417,7 +4417,7 @@
       </c>
       <c r="I88" s="23">
         <f>Index!I89-Index!I87</f>
-        <v>7517.18</v>
+        <v>10393.74</v>
       </c>
       <c r="J88" s="8"/>
       <c r="K88" s="22" t="s">
@@ -4448,7 +4448,7 @@
       </c>
       <c r="C89" s="23">
         <f>SUMIFS('Trading History'!$M$4:$M1007, 'Trading History'!$K$4:$K1007, CONCAT("&gt;", $A85))</f>
-        <v>71262.23966</v>
+        <v>72618.18686</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="20" t="s">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="F89" s="23">
         <f>SUMIFS('Trading History'!$Q$4:$Q1007, 'Trading History'!$O$4:$O1007, CONCAT("&gt;", $A85))</f>
-        <v>61362.07514</v>
+        <v>58496.1245</v>
       </c>
       <c r="G89" s="8"/>
       <c r="H89" s="21" t="s">
@@ -4464,7 +4464,7 @@
       </c>
       <c r="I89" s="23">
         <f>SUMIFS('Trading History'!$U$4:$U1007, 'Trading History'!$S$4:$S1007, CONCAT("&gt;", $A85))</f>
-        <v>9900.16452</v>
+        <v>14122.06236</v>
       </c>
       <c r="J89" s="8"/>
       <c r="K89" s="22" t="s">
@@ -29600,7 +29600,7 @@
       </c>
       <c r="J5" s="61">
         <f>Index!$C$2</f>
-        <v>1986.8</v>
+        <v>2025</v>
       </c>
       <c r="K5" s="62" t="str">
         <f t="shared" ref="K5:K20" si="1">IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
@@ -29731,19 +29731,19 @@
       </c>
       <c r="J6" s="61">
         <f>Index!$C$2</f>
-        <v>1986.8</v>
+        <v>2025</v>
       </c>
       <c r="K6" s="62">
         <f t="shared" si="1"/>
-        <v>0.3934922121</v>
+        <v>0.4198830025</v>
       </c>
       <c r="L6" s="63">
         <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
-        <v>1123.19204</v>
+        <v>1198.52244</v>
       </c>
       <c r="M6" s="63">
         <f t="shared" si="2"/>
-        <v>3957.65204</v>
+        <v>4032.98244</v>
       </c>
       <c r="N6" s="64">
         <f t="shared" si="3"/>
@@ -29751,15 +29751,15 @@
       </c>
       <c r="O6" s="62">
         <f t="shared" si="4"/>
-        <v>0.3934922121</v>
+        <v>0.4198830025</v>
       </c>
       <c r="P6" s="63">
         <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
-        <v>1123.19204</v>
+        <v>1198.52244</v>
       </c>
       <c r="Q6" s="63">
         <f t="shared" si="5"/>
-        <v>3957.65204</v>
+        <v>4032.98244</v>
       </c>
       <c r="R6" s="63">
         <f t="shared" si="6"/>
@@ -29826,19 +29826,19 @@
       </c>
       <c r="J7" s="61">
         <f>Index!$C$2</f>
-        <v>1986.8</v>
+        <v>2025</v>
       </c>
       <c r="K7" s="62">
         <f t="shared" si="1"/>
-        <v>0.3783640912</v>
+        <v>0.4044642921</v>
       </c>
       <c r="L7" s="63">
         <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
-        <v>1092.03444</v>
+        <v>1167.36484</v>
       </c>
       <c r="M7" s="63">
         <f t="shared" si="2"/>
-        <v>3958.09444</v>
+        <v>4033.42484</v>
       </c>
       <c r="N7" s="64">
         <f t="shared" si="3"/>
@@ -29846,15 +29846,15 @@
       </c>
       <c r="O7" s="62">
         <f t="shared" si="4"/>
-        <v>0.3783640912</v>
+        <v>0.4044642921</v>
       </c>
       <c r="P7" s="63">
         <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
-        <v>1092.03444</v>
+        <v>1167.36484</v>
       </c>
       <c r="Q7" s="63">
         <f t="shared" si="5"/>
-        <v>3958.09444</v>
+        <v>4033.42484</v>
       </c>
       <c r="R7" s="63">
         <f t="shared" si="6"/>
@@ -29921,19 +29921,19 @@
       </c>
       <c r="J8" s="61">
         <f>Index!$C$2</f>
-        <v>1986.8</v>
+        <v>2025</v>
       </c>
       <c r="K8" s="62">
         <f t="shared" si="1"/>
-        <v>0.3192260279</v>
+        <v>0.3441890459</v>
       </c>
       <c r="L8" s="63">
         <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
-        <v>963.322</v>
+        <v>1038.6524</v>
       </c>
       <c r="M8" s="63">
         <f t="shared" si="2"/>
-        <v>3959.922</v>
+        <v>4035.2524</v>
       </c>
       <c r="N8" s="64">
         <f t="shared" si="3"/>
@@ -29941,15 +29941,15 @@
       </c>
       <c r="O8" s="62">
         <f t="shared" si="4"/>
-        <v>0.3192260279</v>
+        <v>0.3441890459</v>
       </c>
       <c r="P8" s="63">
         <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
-        <v>963.322</v>
+        <v>1038.6524</v>
       </c>
       <c r="Q8" s="63">
         <f t="shared" si="5"/>
-        <v>3959.922</v>
+        <v>4035.2524</v>
       </c>
       <c r="R8" s="63">
         <f t="shared" si="6"/>
@@ -30016,19 +30016,19 @@
       </c>
       <c r="J9" s="61">
         <f>Index!$C$2</f>
-        <v>1986.8</v>
+        <v>2025</v>
       </c>
       <c r="K9" s="62">
         <f t="shared" si="1"/>
-        <v>0.3496089948</v>
+        <v>0.3751562126</v>
       </c>
       <c r="L9" s="63">
         <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
-        <v>1546.32408</v>
+        <v>1659.31968</v>
       </c>
       <c r="M9" s="63">
         <f t="shared" si="2"/>
-        <v>5938.44408</v>
+        <v>6051.43968</v>
       </c>
       <c r="N9" s="64">
         <f t="shared" si="3"/>
@@ -30036,15 +30036,15 @@
       </c>
       <c r="O9" s="62">
         <f t="shared" si="4"/>
-        <v>0.3496089948</v>
+        <v>0.3751562126</v>
       </c>
       <c r="P9" s="63">
         <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
-        <v>1546.32408</v>
+        <v>1659.31968</v>
       </c>
       <c r="Q9" s="63">
         <f t="shared" si="5"/>
-        <v>5938.44408</v>
+        <v>6051.43968</v>
       </c>
       <c r="R9" s="63">
         <f t="shared" si="6"/>
@@ -30111,19 +30111,19 @@
       </c>
       <c r="J10" s="61">
         <f>Index!$C$2</f>
-        <v>1986.8</v>
+        <v>2025</v>
       </c>
       <c r="K10" s="62">
         <f t="shared" si="1"/>
-        <v>0.3495985526</v>
+        <v>0.3751454961</v>
       </c>
       <c r="L10" s="63">
         <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
-        <v>4123.452</v>
+        <v>4424.7736</v>
       </c>
       <c r="M10" s="63">
         <f t="shared" si="2"/>
-        <v>15835.852</v>
+        <v>16137.1736</v>
       </c>
       <c r="N10" s="64">
         <f t="shared" si="3"/>
@@ -30131,15 +30131,15 @@
       </c>
       <c r="O10" s="62">
         <f t="shared" si="4"/>
-        <v>0.3495985526</v>
+        <v>0.3751454961</v>
       </c>
       <c r="P10" s="63">
         <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
-        <v>4123.452</v>
+        <v>4424.7736</v>
       </c>
       <c r="Q10" s="63">
         <f t="shared" si="5"/>
-        <v>15835.852</v>
+        <v>16137.1736</v>
       </c>
       <c r="R10" s="63">
         <f t="shared" si="6"/>
@@ -30206,19 +30206,19 @@
       </c>
       <c r="J11" s="61">
         <f>Index!$C$2</f>
-        <v>1986.8</v>
+        <v>2025</v>
       </c>
       <c r="K11" s="62">
         <f t="shared" si="1"/>
-        <v>0.3495877154</v>
+        <v>0.3751343557</v>
       </c>
       <c r="L11" s="63">
         <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
-        <v>1030.84328</v>
+        <v>1106.17368</v>
       </c>
       <c r="M11" s="63">
         <f t="shared" si="2"/>
-        <v>3958.96328</v>
+        <v>4034.29368</v>
       </c>
       <c r="N11" s="64">
         <f t="shared" si="3"/>
@@ -30226,15 +30226,15 @@
       </c>
       <c r="O11" s="62">
         <f t="shared" si="4"/>
-        <v>0.3495877154</v>
+        <v>0.3751343557</v>
       </c>
       <c r="P11" s="63">
         <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
-        <v>1030.84328</v>
+        <v>1106.17368</v>
       </c>
       <c r="Q11" s="63">
         <f t="shared" si="5"/>
-        <v>3958.96328</v>
+        <v>4034.29368</v>
       </c>
       <c r="R11" s="63">
         <f t="shared" si="6"/>
@@ -30301,19 +30301,19 @@
       </c>
       <c r="J12" s="61">
         <f>Index!$C$2</f>
-        <v>1986.8</v>
+        <v>2025</v>
       </c>
       <c r="K12" s="62">
         <f t="shared" si="1"/>
-        <v>0.3490105763</v>
+        <v>0.3745463051</v>
       </c>
       <c r="L12" s="63">
         <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
-        <v>1544.3718</v>
+        <v>1657.3674</v>
       </c>
       <c r="M12" s="63">
         <f t="shared" si="2"/>
-        <v>5938.4718</v>
+        <v>6051.4674</v>
       </c>
       <c r="N12" s="64">
         <f t="shared" si="3"/>
@@ -30321,15 +30321,15 @@
       </c>
       <c r="O12" s="62">
         <f t="shared" si="4"/>
-        <v>0.3490105763</v>
+        <v>0.3745463051</v>
       </c>
       <c r="P12" s="63">
         <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
-        <v>1544.3718</v>
+        <v>1657.3674</v>
       </c>
       <c r="Q12" s="63">
         <f t="shared" si="5"/>
-        <v>5938.4718</v>
+        <v>6051.4674</v>
       </c>
       <c r="R12" s="63">
         <f t="shared" si="6"/>
@@ -30396,19 +30396,19 @@
       </c>
       <c r="J13" s="61">
         <f>Index!$C$2</f>
-        <v>1986.8</v>
+        <v>2025</v>
       </c>
       <c r="K13" s="62">
         <f t="shared" si="1"/>
-        <v>0.3490219935</v>
+        <v>0.3745580686</v>
       </c>
       <c r="L13" s="63">
         <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
-        <v>514.80046</v>
+        <v>552.46566</v>
       </c>
       <c r="M13" s="63">
         <f t="shared" si="2"/>
-        <v>1979.49046</v>
+        <v>2017.15566</v>
       </c>
       <c r="N13" s="64">
         <f t="shared" si="3"/>
@@ -30416,15 +30416,15 @@
       </c>
       <c r="O13" s="62">
         <f t="shared" si="4"/>
-        <v>0.3490219935</v>
+        <v>0.3745580686</v>
       </c>
       <c r="P13" s="63">
         <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
-        <v>514.80046</v>
+        <v>552.46566</v>
       </c>
       <c r="Q13" s="63">
         <f t="shared" si="5"/>
-        <v>1979.49046</v>
+        <v>2017.15566</v>
       </c>
       <c r="R13" s="63">
         <f t="shared" si="6"/>
@@ -30491,19 +30491,19 @@
       </c>
       <c r="J14" s="61">
         <f>Index!$C$2</f>
-        <v>1986.8</v>
+        <v>2025</v>
       </c>
       <c r="K14" s="62">
         <f t="shared" si="1"/>
-        <v>0.3490105763</v>
+        <v>0.3745463051</v>
       </c>
       <c r="L14" s="63">
         <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
-        <v>1544.3718</v>
+        <v>1657.3674</v>
       </c>
       <c r="M14" s="63">
         <f t="shared" si="2"/>
-        <v>5938.4718</v>
+        <v>6051.4674</v>
       </c>
       <c r="N14" s="64">
         <f t="shared" si="3"/>
@@ -30511,15 +30511,15 @@
       </c>
       <c r="O14" s="62">
         <f t="shared" si="4"/>
-        <v>0.3490105763</v>
+        <v>0.3745463051</v>
       </c>
       <c r="P14" s="63">
         <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
-        <v>1544.3718</v>
+        <v>1657.3674</v>
       </c>
       <c r="Q14" s="63">
         <f t="shared" si="5"/>
-        <v>5938.4718</v>
+        <v>6051.4674</v>
       </c>
       <c r="R14" s="63">
         <f t="shared" si="6"/>
@@ -30586,19 +30586,19 @@
       </c>
       <c r="J15" s="61">
         <f>Index!$C$2</f>
-        <v>1986.8</v>
+        <v>2025</v>
       </c>
       <c r="K15" s="62">
         <f t="shared" si="1"/>
-        <v>0.3490105763</v>
+        <v>0.3745463051</v>
       </c>
       <c r="L15" s="63">
         <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
-        <v>1544.3718</v>
+        <v>1657.3674</v>
       </c>
       <c r="M15" s="63">
         <f t="shared" si="2"/>
-        <v>5938.4718</v>
+        <v>6051.4674</v>
       </c>
       <c r="N15" s="64">
         <f t="shared" si="3"/>
@@ -30606,15 +30606,15 @@
       </c>
       <c r="O15" s="62">
         <f t="shared" si="4"/>
-        <v>0.3490105763</v>
+        <v>0.3745463051</v>
       </c>
       <c r="P15" s="63">
         <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
-        <v>1544.3718</v>
+        <v>1657.3674</v>
       </c>
       <c r="Q15" s="63">
         <f t="shared" si="5"/>
-        <v>5938.4718</v>
+        <v>6051.4674</v>
       </c>
       <c r="R15" s="63">
         <f t="shared" si="6"/>
@@ -30681,55 +30681,55 @@
       </c>
       <c r="J16" s="61">
         <f>Index!$C$2</f>
-        <v>1986.8</v>
+        <v>2025</v>
       </c>
       <c r="K16" s="62">
         <f t="shared" si="1"/>
-        <v>0.3734056338</v>
+        <v>0.3994103286</v>
       </c>
       <c r="L16" s="63">
         <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
-        <v>1081.68144</v>
+        <v>1157.01184</v>
       </c>
       <c r="M16" s="63">
         <f t="shared" si="2"/>
-        <v>3958.24144</v>
+        <v>4033.57184</v>
       </c>
       <c r="N16" s="64">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="O16" s="62">
+      <c r="O16" s="62" t="str">
         <f t="shared" si="4"/>
-        <v>0.3734056338</v>
-      </c>
-      <c r="P16" s="63">
+        <v/>
+      </c>
+      <c r="P16" s="63" t="str">
         <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
-        <v>1081.68144</v>
-      </c>
-      <c r="Q16" s="63">
+        <v/>
+      </c>
+      <c r="Q16" s="63" t="str">
         <f t="shared" si="5"/>
-        <v>3958.24144</v>
-      </c>
-      <c r="R16" s="63">
+        <v/>
+      </c>
+      <c r="R16" s="63" t="str">
         <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="S16" s="65">
+        <f t="shared" si="7"/>
+        <v>0.3994103286</v>
+      </c>
+      <c r="T16" s="66">
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <v>1157.01184</v>
+      </c>
+      <c r="U16" s="66">
+        <f t="shared" si="8"/>
+        <v>4033.57184</v>
+      </c>
+      <c r="V16" s="66">
+        <f t="shared" si="9"/>
         <v>2</v>
-      </c>
-      <c r="S16" s="65" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="T16" s="66" t="str">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
-        <v/>
-      </c>
-      <c r="U16" s="66" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="V16" s="66" t="str">
-        <f t="shared" si="9"/>
-        <v/>
       </c>
       <c r="W16" s="67"/>
       <c r="X16" s="67"/>
@@ -30776,19 +30776,19 @@
       </c>
       <c r="J17" s="61">
         <f>Index!$C$2</f>
-        <v>1986.8</v>
+        <v>2025</v>
       </c>
       <c r="K17" s="62">
         <f t="shared" si="1"/>
-        <v>0.3276252918</v>
+        <v>0.3527498299</v>
       </c>
       <c r="L17" s="63">
         <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
-        <v>982.31236</v>
+        <v>1057.64276</v>
       </c>
       <c r="M17" s="63">
         <f t="shared" si="2"/>
-        <v>3959.65236</v>
+        <v>4034.98276</v>
       </c>
       <c r="N17" s="64">
         <f t="shared" si="3"/>
@@ -30812,15 +30812,15 @@
       </c>
       <c r="S17" s="65">
         <f t="shared" si="7"/>
-        <v>0.3276252918</v>
+        <v>0.3527498299</v>
       </c>
       <c r="T17" s="66">
         <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
-        <v>982.31236</v>
+        <v>1057.64276</v>
       </c>
       <c r="U17" s="66">
         <f t="shared" si="8"/>
-        <v>3959.65236</v>
+        <v>4034.98276</v>
       </c>
       <c r="V17" s="66">
         <f t="shared" si="9"/>
@@ -30871,19 +30871,19 @@
       </c>
       <c r="J18" s="61">
         <f>Index!$C$2</f>
-        <v>1986.8</v>
+        <v>2025</v>
       </c>
       <c r="K18" s="62">
         <f t="shared" si="1"/>
-        <v>0.3063667813</v>
+        <v>0.3310821281</v>
       </c>
       <c r="L18" s="63">
         <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
-        <v>1400.67216</v>
+        <v>1513.66776</v>
       </c>
       <c r="M18" s="63">
         <f t="shared" si="2"/>
-        <v>5940.51216</v>
+        <v>6053.50776</v>
       </c>
       <c r="N18" s="64">
         <f t="shared" si="3"/>
@@ -30907,15 +30907,15 @@
       </c>
       <c r="S18" s="65">
         <f t="shared" si="7"/>
-        <v>0.3063667813</v>
+        <v>0.3310821281</v>
       </c>
       <c r="T18" s="66">
         <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
-        <v>1400.67216</v>
+        <v>1513.66776</v>
       </c>
       <c r="U18" s="66">
         <f t="shared" si="8"/>
-        <v>5940.51216</v>
+        <v>6053.50776</v>
       </c>
       <c r="V18" s="66">
         <f t="shared" si="9"/>
@@ -30966,7 +30966,7 @@
       </c>
       <c r="J19" s="61">
         <f>Index!$C$2</f>
-        <v>1986.8</v>
+        <v>2025</v>
       </c>
       <c r="K19" s="62" t="str">
         <f t="shared" si="1"/>
@@ -31061,7 +31061,7 @@
       </c>
       <c r="J20" s="61">
         <f>Index!$C$2</f>
-        <v>1986.8</v>
+        <v>2025</v>
       </c>
       <c r="K20" s="62" t="str">
         <f t="shared" si="1"/>
@@ -31158,7 +31158,7 @@
       </c>
       <c r="J21" s="61">
         <f>Index!$C$2</f>
-        <v>1986.8</v>
+        <v>2025</v>
       </c>
       <c r="K21" s="67"/>
       <c r="L21" s="67" t="str">
@@ -31260,7 +31260,7 @@
       </c>
       <c r="J22" s="61">
         <f>Index!$C$2</f>
-        <v>1986.8</v>
+        <v>2025</v>
       </c>
       <c r="K22" s="67"/>
       <c r="L22" s="67" t="str">
@@ -31361,7 +31361,7 @@
       </c>
       <c r="J23" s="61">
         <f>Index!$C$2</f>
-        <v>1986.8</v>
+        <v>2025</v>
       </c>
       <c r="K23" s="67"/>
       <c r="L23" s="67" t="str">
@@ -31462,7 +31462,7 @@
       </c>
       <c r="J24" s="61">
         <f>Index!$C$2</f>
-        <v>1986.8</v>
+        <v>2025</v>
       </c>
       <c r="K24" s="67"/>
       <c r="L24" s="67" t="str">
@@ -31563,7 +31563,7 @@
       </c>
       <c r="J25" s="61">
         <f>Index!$C$2</f>
-        <v>1986.8</v>
+        <v>2025</v>
       </c>
       <c r="K25" s="67"/>
       <c r="L25" s="67" t="str">
@@ -31651,7 +31651,7 @@
       </c>
       <c r="J26" s="61">
         <f>Index!$C$2</f>
-        <v>1986.8</v>
+        <v>2025</v>
       </c>
       <c r="K26" s="67"/>
       <c r="L26" s="67" t="str">
@@ -31752,7 +31752,7 @@
       </c>
       <c r="J27" s="61">
         <f>Index!$C$2</f>
-        <v>1986.8</v>
+        <v>2025</v>
       </c>
       <c r="K27" s="67"/>
       <c r="L27" s="67" t="str">
@@ -31853,7 +31853,7 @@
       </c>
       <c r="J28" s="61">
         <f>Index!$C$2</f>
-        <v>1986.8</v>
+        <v>2025</v>
       </c>
       <c r="K28" s="67"/>
       <c r="L28" s="67" t="str">
@@ -31954,7 +31954,7 @@
       </c>
       <c r="J29" s="61">
         <f>Index!$C$2</f>
-        <v>1986.8</v>
+        <v>2025</v>
       </c>
       <c r="K29" s="67"/>
       <c r="L29" s="67" t="str">
@@ -32055,7 +32055,7 @@
       </c>
       <c r="J30" s="61">
         <f>Index!$C$2</f>
-        <v>1986.8</v>
+        <v>2025</v>
       </c>
       <c r="K30" s="67"/>
       <c r="L30" s="67" t="str">
@@ -32156,7 +32156,7 @@
       </c>
       <c r="J31" s="61">
         <f>Index!$C$2</f>
-        <v>1986.8</v>
+        <v>2025</v>
       </c>
       <c r="K31" s="67"/>
       <c r="L31" s="67" t="str">
@@ -32257,7 +32257,7 @@
       </c>
       <c r="J32" s="61">
         <f>Index!$C$2</f>
-        <v>1986.8</v>
+        <v>2025</v>
       </c>
       <c r="K32" s="67"/>
       <c r="L32" s="67" t="str">
@@ -32358,7 +32358,7 @@
       </c>
       <c r="J33" s="61">
         <f>Index!$C$2</f>
-        <v>1986.8</v>
+        <v>2025</v>
       </c>
       <c r="K33" s="67"/>
       <c r="L33" s="67" t="str">
@@ -32459,7 +32459,7 @@
       </c>
       <c r="J34" s="61">
         <f>Index!$C$2</f>
-        <v>1986.8</v>
+        <v>2025</v>
       </c>
       <c r="K34" s="67"/>
       <c r="L34" s="67" t="str">
@@ -32560,7 +32560,7 @@
       </c>
       <c r="J35" s="61">
         <f>Index!$C$2</f>
-        <v>1986.8</v>
+        <v>2025</v>
       </c>
       <c r="K35" s="67"/>
       <c r="L35" s="67" t="str">
@@ -32661,7 +32661,7 @@
       </c>
       <c r="J36" s="61">
         <f>Index!$C$2</f>
-        <v>1986.8</v>
+        <v>2025</v>
       </c>
       <c r="K36" s="67"/>
       <c r="L36" s="67" t="str">
@@ -32762,7 +32762,7 @@
       </c>
       <c r="J37" s="61">
         <f>Index!$C$2</f>
-        <v>1986.8</v>
+        <v>2025</v>
       </c>
       <c r="K37" s="67"/>
       <c r="L37" s="67" t="str">
@@ -46665,7 +46665,7 @@
   </sheetData>
   <autoFilter ref="$A$4:$AE$37"/>
   <customSheetViews>
-    <customSheetView guid="{791B4A95-CED9-490F-A961-67A71AFD0FD6}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{4171CA8A-1E3E-4C37-8981-EDBA562B7708}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$4:$AP$103"/>
     </customSheetView>
   </customSheetViews>
